--- a/Книга1 (1).xlsx
+++ b/Книга1 (1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E96B1-75DC-4787-84BC-15D7877BCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="19440" windowHeight="14940" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,18 @@
     <sheet name="Июль" sheetId="23" r:id="rId8"/>
     <sheet name="Август" sheetId="24" r:id="rId9"/>
     <sheet name="Сентябрь" sheetId="25" r:id="rId10"/>
-    <sheet name="Октябрь" sheetId="26" r:id="rId11"/>
-    <sheet name="Ноябрь" sheetId="27" r:id="rId12"/>
-    <sheet name="Декабрь" sheetId="28" r:id="rId13"/>
-    <sheet name="Лист2" sheetId="29" r:id="rId14"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId15"/>
+    <sheet name="Лист3" sheetId="30" r:id="rId11"/>
+    <sheet name="Октябрь" sheetId="26" r:id="rId12"/>
+    <sheet name="Ноябрь" sheetId="27" r:id="rId13"/>
+    <sheet name="Декабрь" sheetId="28" r:id="rId14"/>
+    <sheet name="Лист2" sheetId="29" r:id="rId15"/>
+    <sheet name="Лист1 (2)" sheetId="31" r:id="rId16"/>
+    <sheet name="Лист2 (2)" sheetId="32" r:id="rId17"/>
+    <sheet name="Лист3 (2)" sheetId="33" r:id="rId18"/>
+    <sheet name="Лист4 (2)" sheetId="34" r:id="rId19"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId20"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$B$2:$B$316</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$2:$B$316</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$2:$B$316</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>x</t>
   </si>
@@ -298,16 +304,151 @@
   <si>
     <t>y1</t>
   </si>
+  <si>
+    <t>Суслов Иван</t>
+  </si>
+  <si>
+    <t>Сомов Виктор</t>
+  </si>
+  <si>
+    <t>Симонова Елена</t>
+  </si>
+  <si>
+    <t>Семёнова Ирина</t>
+  </si>
+  <si>
+    <t>Петров Олег</t>
+  </si>
+  <si>
+    <t>Орлова Анна</t>
+  </si>
+  <si>
+    <t>Орехова Татьяна</t>
+  </si>
+  <si>
+    <t>Лосева Ольга</t>
+  </si>
+  <si>
+    <t>Городилов Андрей</t>
+  </si>
+  <si>
+    <t>Бобров Игорь</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>Сумма баллов</t>
+  </si>
+  <si>
+    <t>Сочинение</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Фамилия
+Имя</t>
+  </si>
+  <si>
+    <t>Абитуриенты</t>
+  </si>
+  <si>
+    <t>Средняя высота
+над уровнем моря</t>
+  </si>
+  <si>
+    <t>Самое обширное
+озеро</t>
+  </si>
+  <si>
+    <t>Самое мелкое
+озеро</t>
+  </si>
+  <si>
+    <t>Мичиган</t>
+  </si>
+  <si>
+    <t>Аральское море</t>
+  </si>
+  <si>
+    <t>Гурон</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Таньганьика</t>
+  </si>
+  <si>
+    <t>Байкал</t>
+  </si>
+  <si>
+    <t>Высота над
+уровнем моря</t>
+  </si>
+  <si>
+    <t>Глубина (м)</t>
+  </si>
+  <si>
+    <t>Площадь
+(тыс. кв. м)</t>
+  </si>
+  <si>
+    <t>Название озёр</t>
+  </si>
+  <si>
+    <t>Средний балл по группе</t>
+  </si>
+  <si>
+    <t>Сидорова Татьяна</t>
+  </si>
+  <si>
+    <t>Ян Миша</t>
+  </si>
+  <si>
+    <t>Ли Коля</t>
+  </si>
+  <si>
+    <t>Васильев Вася</t>
+  </si>
+  <si>
+    <t>Иванов Петя</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Литера-
+тура</t>
+  </si>
+  <si>
+    <t>Русский
+язык</t>
+  </si>
+  <si>
+    <t>Предмет
+Фамилии</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,8 +515,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +599,26 @@
         <bgColor rgb="FFFFFFB7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -540,13 +715,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -679,13 +924,140 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Финансовый 2" xfId="3" xr:uid="{801067FF-DA00-4535-BA6B-F79D0CB0A719}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -699,7 +1071,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1728,7 +2100,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E533-4426-9D04-48EF144A862D}"/>
             </c:ext>
@@ -1742,7 +2114,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="58951680"/>
         <c:axId val="39952384"/>
@@ -1863,14 +2234,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1906,7 +2277,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2128,7 +2499,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -2337,7 +2708,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -2504,7 +2875,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -2671,7 +3042,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -2832,7 +3203,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -2993,7 +3364,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -3166,7 +3537,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -3352,7 +3723,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -3519,7 +3890,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -3686,7 +4057,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -3862,7 +4233,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -4038,7 +4409,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -4196,7 +4567,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -4354,7 +4725,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -4521,7 +4892,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-8881-4EF5-A3E0-A86977D8AF93}"/>
             </c:ext>
@@ -4636,7 +5007,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4667,14 +5037,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5288,7 +5658,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E8DD23A-8B12-4C10-B8E7-A22719B82200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8DD23A-8B12-4C10-B8E7-A22719B82200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5329,7 +5699,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4651E80E-86E1-4848-BFC5-50F3B14FB369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4651E80E-86E1-4848-BFC5-50F3B14FB369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5607,14 +5977,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8473,7 +8843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9755,7 +10125,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544EBB52-19BE-401C-A3CF-5C0DC4406685}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10898,8 +11280,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10928,7 +11310,7 @@
       </c>
       <c r="B2" s="31" t="str">
         <f>DOLLAR(5000,0)</f>
-        <v>5 000р.</v>
+        <v>5 000 ₽</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -11986,8 +12368,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13465,8 +13847,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -14322,20 +14704,1164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0098A12-0E8A-4742-B442-922C1EDD8579}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="55">
+        <v>5</v>
+      </c>
+      <c r="C3" s="55">
+        <v>4</v>
+      </c>
+      <c r="D3" s="55">
+        <v>3</v>
+      </c>
+      <c r="E3" s="53">
+        <f>+SUM(B3:D3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="52">
+        <f>+AVERAGE(B3:D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="55">
+        <v>4</v>
+      </c>
+      <c r="C4" s="55">
+        <v>5</v>
+      </c>
+      <c r="D4" s="55">
+        <v>4</v>
+      </c>
+      <c r="E4" s="53">
+        <f>+SUM(B4:D4)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="52">
+        <f>+AVERAGE(B4:D4)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="55">
+        <v>4</v>
+      </c>
+      <c r="C5" s="55">
+        <v>5</v>
+      </c>
+      <c r="D5" s="55">
+        <v>4</v>
+      </c>
+      <c r="E5" s="53">
+        <f>+SUM(B5:D5)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="52">
+        <f>+AVERAGE(B5:D5)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="55">
+        <v>3</v>
+      </c>
+      <c r="C6" s="55">
+        <v>5</v>
+      </c>
+      <c r="D6" s="55">
+        <v>5</v>
+      </c>
+      <c r="E6" s="53">
+        <f>+SUM(B6:D6)</f>
+        <v>13</v>
+      </c>
+      <c r="F6" s="52">
+        <f>+AVERAGE(B6:D6)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="55">
+        <v>3</v>
+      </c>
+      <c r="C7" s="55">
+        <v>2</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0</v>
+      </c>
+      <c r="E7" s="53">
+        <f>+SUM(B7:D7)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="52">
+        <f>+AVERAGE(B7:D7)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="55">
+        <v>4</v>
+      </c>
+      <c r="C8" s="55">
+        <v>3</v>
+      </c>
+      <c r="D8" s="55">
+        <v>2</v>
+      </c>
+      <c r="E8" s="53">
+        <f>+SUM(B8:D8)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="52">
+        <f>+AVERAGE(B8:D8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="55">
+        <v>5</v>
+      </c>
+      <c r="C9" s="55">
+        <v>5</v>
+      </c>
+      <c r="D9" s="55">
+        <v>5</v>
+      </c>
+      <c r="E9" s="53">
+        <f>+SUM(B9:D9)</f>
+        <v>15</v>
+      </c>
+      <c r="F9" s="52">
+        <f>+AVERAGE(B9:D9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="55">
+        <v>4</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3</v>
+      </c>
+      <c r="D10" s="55">
+        <v>4</v>
+      </c>
+      <c r="E10" s="53">
+        <f>+SUM(B10:D10)</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="52">
+        <f>+AVERAGE(B10:D10)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="55">
+        <v>4</v>
+      </c>
+      <c r="C11" s="55">
+        <v>4</v>
+      </c>
+      <c r="D11" s="55">
+        <v>4</v>
+      </c>
+      <c r="E11" s="53">
+        <f>+SUM(B11:D11)</f>
+        <v>12</v>
+      </c>
+      <c r="F11" s="52">
+        <f>+AVERAGE(B11:D11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="54">
+        <v>3</v>
+      </c>
+      <c r="C12" s="54">
+        <v>4</v>
+      </c>
+      <c r="D12" s="54">
+        <v>4</v>
+      </c>
+      <c r="E12" s="53">
+        <f>+SUM(B12:D12)</f>
+        <v>11</v>
+      </c>
+      <c r="F12" s="52">
+        <f>+AVERAGE(B12:D12)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205EE611-5EB5-4627-A00C-EBF6E487BEA9}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="55">
+        <v>5</v>
+      </c>
+      <c r="C3" s="55">
+        <v>4</v>
+      </c>
+      <c r="D3" s="55">
+        <v>3</v>
+      </c>
+      <c r="E3" s="55">
+        <f>+SUM(B3:D3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="62">
+        <f>+AVERAGE(B3:D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="55">
+        <v>4</v>
+      </c>
+      <c r="C4" s="55">
+        <v>5</v>
+      </c>
+      <c r="D4" s="55">
+        <v>4</v>
+      </c>
+      <c r="E4" s="55">
+        <f>+SUM(B4:D4)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="62">
+        <f>+AVERAGE(B4:D4)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="55">
+        <v>4</v>
+      </c>
+      <c r="C5" s="55">
+        <v>5</v>
+      </c>
+      <c r="D5" s="55">
+        <v>4</v>
+      </c>
+      <c r="E5" s="55">
+        <f>+SUM(B5:D5)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="62">
+        <f>+AVERAGE(B5:D5)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="55">
+        <v>3</v>
+      </c>
+      <c r="C6" s="55">
+        <v>5</v>
+      </c>
+      <c r="D6" s="55">
+        <v>5</v>
+      </c>
+      <c r="E6" s="55">
+        <f>+SUM(B6:D6)</f>
+        <v>13</v>
+      </c>
+      <c r="F6" s="62">
+        <f>+AVERAGE(B6:D6)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="55">
+        <v>3</v>
+      </c>
+      <c r="C7" s="55">
+        <v>2</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0</v>
+      </c>
+      <c r="E7" s="55">
+        <f>+SUM(B7:D7)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="62">
+        <f>+AVERAGE(B7:D7)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="55">
+        <v>4</v>
+      </c>
+      <c r="C8" s="55">
+        <v>3</v>
+      </c>
+      <c r="D8" s="55">
+        <v>2</v>
+      </c>
+      <c r="E8" s="55">
+        <f>+SUM(B8:D8)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="62">
+        <f>+AVERAGE(B8:D8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="55">
+        <v>5</v>
+      </c>
+      <c r="C9" s="55">
+        <v>5</v>
+      </c>
+      <c r="D9" s="55">
+        <v>5</v>
+      </c>
+      <c r="E9" s="55">
+        <f>+SUM(B9:D9)</f>
+        <v>15</v>
+      </c>
+      <c r="F9" s="62">
+        <f>+AVERAGE(B9:D9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="55">
+        <v>4</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3</v>
+      </c>
+      <c r="D10" s="55">
+        <v>4</v>
+      </c>
+      <c r="E10" s="55">
+        <f>+SUM(B10:D10)</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="62">
+        <f>+AVERAGE(B10:D10)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="55">
+        <v>4</v>
+      </c>
+      <c r="C11" s="55">
+        <v>4</v>
+      </c>
+      <c r="D11" s="55">
+        <v>4</v>
+      </c>
+      <c r="E11" s="55">
+        <f>+SUM(B11:D11)</f>
+        <v>12</v>
+      </c>
+      <c r="F11" s="62">
+        <f>+AVERAGE(B11:D11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="54">
+        <v>3</v>
+      </c>
+      <c r="C12" s="54">
+        <v>4</v>
+      </c>
+      <c r="D12" s="54">
+        <v>4</v>
+      </c>
+      <c r="E12" s="55">
+        <f>+SUM(B12:D12)</f>
+        <v>11</v>
+      </c>
+      <c r="F12" s="62">
+        <f>+AVERAGE(B12:D12)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0A2FC9-D415-46B8-AE6B-003F63D65191}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="55">
+        <v>31.5</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1520</v>
+      </c>
+      <c r="D2" s="55">
+        <v>456</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="55">
+        <v>34</v>
+      </c>
+      <c r="C3" s="55">
+        <v>14701</v>
+      </c>
+      <c r="D3" s="55">
+        <v>773</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="55">
+        <v>68</v>
+      </c>
+      <c r="C4" s="55">
+        <v>80</v>
+      </c>
+      <c r="D4" s="55">
+        <v>1134</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="55">
+        <v>59.6</v>
+      </c>
+      <c r="C5" s="55">
+        <v>288</v>
+      </c>
+      <c r="D5" s="55">
+        <v>177</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="55">
+        <v>51.1</v>
+      </c>
+      <c r="C6" s="55">
+        <v>61</v>
+      </c>
+      <c r="D6" s="55">
+        <v>53</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="55">
+        <v>58</v>
+      </c>
+      <c r="C7" s="55">
+        <v>281</v>
+      </c>
+      <c r="D7" s="55">
+        <v>177</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="65">
+        <f>MIN(B2:B7)</f>
+        <v>31.5</v>
+      </c>
+      <c r="C10" s="65">
+        <f>MAX(C2:C7)</f>
+        <v>14701</v>
+      </c>
+      <c r="D10" s="64">
+        <f>AVERAGE(D2:D7)</f>
+        <v>461.66666666666669</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A96F8C-A2ED-4AA2-A3ED-72E63986944A}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="74">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="72">
+        <v>4</v>
+      </c>
+      <c r="D2" s="72">
+        <v>5</v>
+      </c>
+      <c r="E2" s="72">
+        <v>5</v>
+      </c>
+      <c r="F2" s="72">
+        <v>5</v>
+      </c>
+      <c r="G2" s="72">
+        <v>5</v>
+      </c>
+      <c r="H2" s="72">
+        <v>5</v>
+      </c>
+      <c r="I2" s="72">
+        <v>5</v>
+      </c>
+      <c r="J2" s="71">
+        <f>AVERAGE(C2:I2)</f>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="72">
+        <v>3</v>
+      </c>
+      <c r="D3" s="72">
+        <v>3</v>
+      </c>
+      <c r="E3" s="72">
+        <v>3</v>
+      </c>
+      <c r="F3" s="72">
+        <v>3</v>
+      </c>
+      <c r="G3" s="72">
+        <v>3</v>
+      </c>
+      <c r="H3" s="72">
+        <v>3</v>
+      </c>
+      <c r="I3" s="72">
+        <v>3</v>
+      </c>
+      <c r="J3" s="71">
+        <f>AVERAGE(C3:I3)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="72">
+        <v>2</v>
+      </c>
+      <c r="D4" s="72">
+        <v>4</v>
+      </c>
+      <c r="E4" s="72">
+        <v>4</v>
+      </c>
+      <c r="F4" s="72">
+        <v>4</v>
+      </c>
+      <c r="G4" s="72">
+        <v>4</v>
+      </c>
+      <c r="H4" s="72">
+        <v>4</v>
+      </c>
+      <c r="I4" s="72">
+        <v>4</v>
+      </c>
+      <c r="J4" s="71">
+        <f>AVERAGE(C4:I4)</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="72">
+        <v>4</v>
+      </c>
+      <c r="D5" s="72">
+        <v>4</v>
+      </c>
+      <c r="E5" s="72">
+        <v>5</v>
+      </c>
+      <c r="F5" s="72">
+        <v>5</v>
+      </c>
+      <c r="G5" s="72">
+        <v>5</v>
+      </c>
+      <c r="H5" s="72">
+        <v>5</v>
+      </c>
+      <c r="I5" s="72">
+        <v>5</v>
+      </c>
+      <c r="J5" s="71">
+        <f>AVERAGE(C5:I5)</f>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>5</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="72">
+        <v>3</v>
+      </c>
+      <c r="D6" s="72">
+        <v>5</v>
+      </c>
+      <c r="E6" s="72">
+        <v>4</v>
+      </c>
+      <c r="F6" s="72">
+        <v>4</v>
+      </c>
+      <c r="G6" s="72">
+        <v>4</v>
+      </c>
+      <c r="H6" s="72">
+        <v>4</v>
+      </c>
+      <c r="I6" s="72">
+        <v>4</v>
+      </c>
+      <c r="J6" s="71">
+        <f>AVERAGE(C6:I6)</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="69">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="69">
+        <f>AVERAGE(D2:D6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="69">
+        <f>AVERAGE(E2:E6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="69">
+        <f>AVERAGE(F2:F6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="69">
+        <f>AVERAGE(G2:G6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="69">
+        <f>AVERAGE(H2:H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="I7" s="69">
+        <f>AVERAGE(I2:I6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="68">
+        <f>AVERAGE(J2:J6)</f>
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:I6">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$C1048574=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:J7">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThanOrEqual">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>$C1048573=4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19467,8 +20993,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20514,11 +22052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21601,7 +23139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22911,7 +24449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24139,7 +25677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25607,7 +27145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26713,7 +28251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
